--- a/simulation_data/two_step_algorithm/2s_error_level_13_percent_water_1.xlsx
+++ b/simulation_data/two_step_algorithm/2s_error_level_13_percent_water_1.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>93.22352629996678</v>
+        <v>97.18270894064979</v>
       </c>
       <c r="D2" t="n">
-        <v>16.43219799540761</v>
+        <v>13.88004588328523</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>90.13610317604955</v>
+        <v>90.94317216487103</v>
       </c>
       <c r="D3" t="n">
-        <v>13.16114100945263</v>
+        <v>14.67785296405884</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>90.66984076389437</v>
+        <v>91.91012787381833</v>
       </c>
       <c r="D4" t="n">
-        <v>17.75006812712072</v>
+        <v>13.91311625550895</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>92.34942830299821</v>
+        <v>90.96084350708571</v>
       </c>
       <c r="D5" t="n">
-        <v>16.97456838658186</v>
+        <v>15.44419904271435</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>89.36215678987399</v>
+        <v>89.69767523558443</v>
       </c>
       <c r="D6" t="n">
-        <v>18.22077161992727</v>
+        <v>15.24420337589857</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>90.70023205506737</v>
+        <v>86.54259188391605</v>
       </c>
       <c r="D7" t="n">
-        <v>16.12225928063955</v>
+        <v>16.03604146687253</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>89.0698242452313</v>
+        <v>85.56716654686119</v>
       </c>
       <c r="D8" t="n">
-        <v>17.07685829004977</v>
+        <v>15.82670556746772</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>88.33257249601431</v>
+        <v>84.18251313348881</v>
       </c>
       <c r="D9" t="n">
-        <v>15.18984720275913</v>
+        <v>15.90376174599706</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>82.68680985586779</v>
+        <v>87.02264163618582</v>
       </c>
       <c r="D10" t="n">
-        <v>17.67225168062552</v>
+        <v>13.54303731814534</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>85.49648832092693</v>
+        <v>83.8585492178094</v>
       </c>
       <c r="D11" t="n">
-        <v>16.91631701968315</v>
+        <v>14.87643487694262</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>83.0552942437663</v>
+        <v>82.64708344200537</v>
       </c>
       <c r="D12" t="n">
-        <v>17.39729844943485</v>
+        <v>14.02241464712293</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>79.91268635115529</v>
+        <v>81.55341061343196</v>
       </c>
       <c r="D13" t="n">
-        <v>14.17390428444847</v>
+        <v>14.4607336172599</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>83.37037838579874</v>
+        <v>80.82635441110143</v>
       </c>
       <c r="D14" t="n">
-        <v>15.74005368431036</v>
+        <v>15.63011855748685</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>79.69684134393432</v>
+        <v>78.74013852447783</v>
       </c>
       <c r="D15" t="n">
-        <v>16.40819145930186</v>
+        <v>14.82234701559921</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>79.11375926893007</v>
+        <v>75.77504272681907</v>
       </c>
       <c r="D16" t="n">
-        <v>14.33440416246509</v>
+        <v>16.72527115838876</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>82.23741379814869</v>
+        <v>77.8179535628886</v>
       </c>
       <c r="D17" t="n">
-        <v>16.46998154286645</v>
+        <v>13.91597425820825</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>74.24856918553152</v>
+        <v>77.08106172478011</v>
       </c>
       <c r="D18" t="n">
-        <v>14.34007808482019</v>
+        <v>13.09414568509059</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>76.40364946386754</v>
+        <v>76.14715390921576</v>
       </c>
       <c r="D19" t="n">
-        <v>13.36102444204765</v>
+        <v>15.77631039683411</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>71.33702556641965</v>
+        <v>72.1844323146495</v>
       </c>
       <c r="D20" t="n">
-        <v>16.22228289805868</v>
+        <v>14.49180075231161</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>72.33540078248531</v>
+        <v>72.86334635009533</v>
       </c>
       <c r="D21" t="n">
-        <v>16.67543387190906</v>
+        <v>13.08633983250492</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>70.38250026889052</v>
+        <v>73.59075892962585</v>
       </c>
       <c r="D22" t="n">
-        <v>14.21576440440266</v>
+        <v>16.06118736461277</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>69.85444847637901</v>
+        <v>68.92046098105563</v>
       </c>
       <c r="D23" t="n">
-        <v>14.25898414898331</v>
+        <v>14.401657229889</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>71.33272165737417</v>
+        <v>70.27871128266807</v>
       </c>
       <c r="D24" t="n">
-        <v>15.26905313262427</v>
+        <v>14.71516153532207</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>71.02017641551716</v>
+        <v>68.73149562887319</v>
       </c>
       <c r="D25" t="n">
-        <v>14.37578796334577</v>
+        <v>15.93481570490625</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>65.56572438184131</v>
+        <v>66.27926310946356</v>
       </c>
       <c r="D26" t="n">
-        <v>15.99594804312139</v>
+        <v>14.89732485323825</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>64.90448955080107</v>
+        <v>67.02438696532893</v>
       </c>
       <c r="D27" t="n">
-        <v>16.8792931273899</v>
+        <v>15.88449818375829</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>66.12210559208501</v>
+        <v>66.37046692993437</v>
       </c>
       <c r="D28" t="n">
-        <v>14.40978457963389</v>
+        <v>13.30189933058095</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>62.34938746079126</v>
+        <v>65.29636259221324</v>
       </c>
       <c r="D29" t="n">
-        <v>14.65856025201916</v>
+        <v>13.46312291323055</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>61.46949347110106</v>
+        <v>63.68588286231144</v>
       </c>
       <c r="D30" t="n">
-        <v>14.88705396924144</v>
+        <v>12.90116624660244</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>62.73907273617039</v>
+        <v>62.85412757278586</v>
       </c>
       <c r="D31" t="n">
-        <v>13.72262236183281</v>
+        <v>15.84243511955147</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>61.82032238913445</v>
+        <v>61.75126801192907</v>
       </c>
       <c r="D32" t="n">
-        <v>17.58525945314334</v>
+        <v>14.98660581445199</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>58.78160672160051</v>
+        <v>62.71242744124648</v>
       </c>
       <c r="D33" t="n">
-        <v>14.29855936275414</v>
+        <v>15.37355450603875</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>58.31024055301463</v>
+        <v>57.08746414954694</v>
       </c>
       <c r="D34" t="n">
-        <v>13.77001645847528</v>
+        <v>15.69115804525972</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>58.99682914622303</v>
+        <v>54.50416504273382</v>
       </c>
       <c r="D35" t="n">
-        <v>15.41713489943012</v>
+        <v>11.91025177224927</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>57.64715384819247</v>
+        <v>53.75082709765733</v>
       </c>
       <c r="D36" t="n">
-        <v>14.6197336117925</v>
+        <v>15.34009977243208</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>57.20446102562667</v>
+        <v>56.66963487839397</v>
       </c>
       <c r="D37" t="n">
-        <v>16.14958916040756</v>
+        <v>15.81055614046474</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>54.46305606137317</v>
+        <v>52.23642300626499</v>
       </c>
       <c r="D38" t="n">
-        <v>16.68582635787349</v>
+        <v>15.86909299684222</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>54.96606776916286</v>
+        <v>56.20594167824974</v>
       </c>
       <c r="D39" t="n">
-        <v>15.06336110221491</v>
+        <v>14.9869833079276</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>53.60968266458566</v>
+        <v>54.00685576702265</v>
       </c>
       <c r="D40" t="n">
-        <v>18.01228128321526</v>
+        <v>14.2542047547105</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>54.31106871752761</v>
+        <v>48.45973782768061</v>
       </c>
       <c r="D41" t="n">
-        <v>14.96574380428079</v>
+        <v>16.33796031382579</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>50.06351846250541</v>
+        <v>49.47563984026826</v>
       </c>
       <c r="D42" t="n">
-        <v>13.41442118514212</v>
+        <v>12.6041286867806</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>51.08823200167343</v>
+        <v>47.69691756520147</v>
       </c>
       <c r="D43" t="n">
-        <v>14.24162370273805</v>
+        <v>14.9481065430338</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>46.37896616626923</v>
+        <v>48.52216230491614</v>
       </c>
       <c r="D44" t="n">
-        <v>14.1940226076999</v>
+        <v>14.77341608746309</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>47.2786191117427</v>
+        <v>46.84123642424513</v>
       </c>
       <c r="D45" t="n">
-        <v>13.64710344345852</v>
+        <v>15.23027650189877</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>48.69806746708269</v>
+        <v>46.73357933655946</v>
       </c>
       <c r="D46" t="n">
-        <v>14.7759331107005</v>
+        <v>14.55855354708758</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>45.72627152312225</v>
+        <v>45.81028962905835</v>
       </c>
       <c r="D47" t="n">
-        <v>15.66877441710658</v>
+        <v>14.20349820267262</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>43.92070199237367</v>
+        <v>42.98397762066202</v>
       </c>
       <c r="D48" t="n">
-        <v>15.38400302166884</v>
+        <v>14.59537624718541</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>42.25372124670817</v>
+        <v>39.33111730204558</v>
       </c>
       <c r="D49" t="n">
-        <v>14.50466947988861</v>
+        <v>14.77264130300699</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>40.58491719074392</v>
+        <v>43.00698855818203</v>
       </c>
       <c r="D50" t="n">
-        <v>14.64717483300732</v>
+        <v>13.8756946796733</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>45.2231762641556</v>
+        <v>39.76350668011593</v>
       </c>
       <c r="D51" t="n">
-        <v>15.65628891060669</v>
+        <v>13.12372082022245</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>40.77086938574327</v>
+        <v>40.18495673908497</v>
       </c>
       <c r="D52" t="n">
-        <v>15.08469823339541</v>
+        <v>13.81997310337316</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>37.81811726898253</v>
+        <v>40.0630793220405</v>
       </c>
       <c r="D53" t="n">
-        <v>13.59773717234624</v>
+        <v>16.3149134148361</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>40.93411570042438</v>
+        <v>39.65376419131187</v>
       </c>
       <c r="D54" t="n">
-        <v>15.16123783544801</v>
+        <v>14.70211358512806</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>39.65948322395547</v>
+        <v>37.80337781592165</v>
       </c>
       <c r="D55" t="n">
-        <v>14.62060326365109</v>
+        <v>15.08245441968118</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>37.14672927272301</v>
+        <v>34.45566029358925</v>
       </c>
       <c r="D56" t="n">
-        <v>15.51373910445051</v>
+        <v>13.75362261630193</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>34.82946749769134</v>
+        <v>34.01545568894613</v>
       </c>
       <c r="D57" t="n">
-        <v>15.4099300386427</v>
+        <v>16.99522536240197</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>31.04282197978101</v>
+        <v>33.2113738811316</v>
       </c>
       <c r="D58" t="n">
-        <v>14.83246870647423</v>
+        <v>13.63374463180448</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>35.07377031074452</v>
+        <v>32.33579900186163</v>
       </c>
       <c r="D59" t="n">
-        <v>14.89913989938466</v>
+        <v>14.66053746832171</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>31.2959204400032</v>
+        <v>32.91973138968412</v>
       </c>
       <c r="D60" t="n">
-        <v>14.5602714434465</v>
+        <v>14.51334688166493</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>30.76829172929754</v>
+        <v>31.72956640892587</v>
       </c>
       <c r="D61" t="n">
-        <v>14.64917085759639</v>
+        <v>15.20791436706336</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>30.95219933008973</v>
+        <v>29.18054684750934</v>
       </c>
       <c r="D62" t="n">
-        <v>14.3107559290034</v>
+        <v>14.58299711086945</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>33.91230279939536</v>
+        <v>29.00989950602313</v>
       </c>
       <c r="D63" t="n">
-        <v>17.21561409922272</v>
+        <v>16.9760612703351</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>28.18985121540662</v>
+        <v>26.73616436128623</v>
       </c>
       <c r="D64" t="n">
-        <v>15.81688412038137</v>
+        <v>14.40364245748921</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>25.23758205577063</v>
+        <v>28.18302670691041</v>
       </c>
       <c r="D65" t="n">
-        <v>14.84985647569322</v>
+        <v>14.17835575159206</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>28.02252804719245</v>
+        <v>25.43941536198539</v>
       </c>
       <c r="D66" t="n">
-        <v>14.82198626137004</v>
+        <v>13.80125456452207</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>25.19706625153665</v>
+        <v>24.36543162638124</v>
       </c>
       <c r="D67" t="n">
-        <v>14.01237723385622</v>
+        <v>15.09400255626057</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>21.80379997341795</v>
+        <v>25.05480394117971</v>
       </c>
       <c r="D68" t="n">
-        <v>14.19107450212445</v>
+        <v>13.26393001700174</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>24.3168279011625</v>
+        <v>20.69906202309238</v>
       </c>
       <c r="D69" t="n">
-        <v>14.20447547784067</v>
+        <v>12.79774545479873</v>
       </c>
     </row>
   </sheetData>
